--- a/StudyFors2SED/sdss_galaxylines.xlsx
+++ b/StudyFors2SED/sdss_galaxylines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagoret/MacOSX/GitHub/LSST/PhotoZ_PhD/StudyFors2SED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46075B66-B458-1C4E-B9F2-6E34AA07B3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58EFC09-ADA3-8845-8C80-ABCC90E325A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16220" xr2:uid="{2B1B428E-A49A-5E4F-9B55-36EA118BB0C4}"/>
+    <workbookView xWindow="6420" yWindow="980" windowWidth="27640" windowHeight="16220" xr2:uid="{2B1B428E-A49A-5E4F-9B55-36EA118BB0C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <r>
       <t xml:space="preserve">O </t>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>Ly_alpha</t>
+  </si>
+  <si>
+    <t>H-Delta</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
